--- a/data/trans_dic/P23_DUKE_AF_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_AF_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social afectivo bajo</t>
+          <t>Población que recibe apoyo social afectivo bajo (tasa de respuesta: 96,08%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>70,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>60,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>63,58%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>71,06%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>69,01%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>18,68%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>72,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>62,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>64,31%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>66,12%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>64,16%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>66,78%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>20,33%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>16,12%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>22,28%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>66,55%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>66,1%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>62,31%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>64,92%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>67,45%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>67,86%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>69,48%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,91; 28,72</t>
+          <t>66,21; 74,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,12; 19,6</t>
+          <t>55,39; 64,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,86; 25,21</t>
+          <t>58,84; 68,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>65,27; 72,95</t>
+          <t>66,29; 75,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,87; 21,83</t>
+          <t>65,43; 73,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,27; 19,77</t>
+          <t>68,34; 76,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,03; 30,57</t>
+          <t>57,92; 66,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>63,08; 70,28</t>
+          <t>60,46; 67,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,65; 23,84</t>
+          <t>62,62; 69,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,18; 18,81</t>
+          <t>59,81; 68,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,45; 26,11</t>
+          <t>63,03; 70,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>65,23; 70,7</t>
+          <t>63,02; 69,64</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>63,13; 69,1</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>59,56; 64,99</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>62,33; 68,06</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>64,34; 70,76</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>65,38; 70,6</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>67,03; 71,99</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>60,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>65,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>65,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>67,33%</t>
+          <t>62,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>73,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>67,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>63,84%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>64,18%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>65,8%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>68,66%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>21,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>19,36%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>17,36%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>67,96%</t>
+          <t>70,55%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>64,21%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>64,73%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>65,07%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>64,18%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>67,94%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>72,04%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 25,83</t>
+          <t>54,82; 66,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,63; 24,29</t>
+          <t>61,14; 69,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,08; 22,29</t>
+          <t>60,96; 70,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,63; 74,2</t>
+          <t>56,81; 67,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,63; 27,23</t>
+          <t>58,34; 74,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,96; 22,44</t>
+          <t>66,89; 78,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,59; 21,21</t>
+          <t>63,22; 71,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,29; 74,82</t>
+          <t>59,78; 68,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,95; 24,17</t>
+          <t>59,63; 68,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,03; 22,11</t>
+          <t>61,26; 70,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 20,34</t>
+          <t>61,3; 75,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>62,19; 73,18</t>
+          <t>64,12; 76,61</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>61,08; 68,01</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>61,55; 67,94</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>62,0; 68,39</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>60,37; 67,7</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>62,26; 72,51</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>67,76; 76,37</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>61,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>60,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>70,65%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>76,85%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>17,4%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>61,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>59,56%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>63,07%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>70,04%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>16,28%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>13,26%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>17,63%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>61,17%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>59,93%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>66,86%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>73,43%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,87; 23,8</t>
+          <t>48,34; 71,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 17,34</t>
+          <t>51,41; 69,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,71; 32,26</t>
+          <t>61,94; 78,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>66,62; 85,35</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>11,23; 24,36</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,98; 22,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,65; 23,36</t>
+          <t>52,86; 69,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>50,75; 67,55</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>55,07; 70,39</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>60,24; 79,36</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>11,67; 21,59</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>9,51; 17,62</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>13,24; 24,81</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>52,53; 67,82</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>54,09; 65,54</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>60,62; 72,39</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>66,39; 80,31</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>65,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>62,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>65,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>68,6%</t>
+          <t>68,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>68,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>72,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>64,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>63,59%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>65,04%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>65,45%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>67,18%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>20,13%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>17,06%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>19,83%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>67,42%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>64,78%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>62,99%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>65,21%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>66,85%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>67,88%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>70,08%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 23,95</t>
+          <t>62,11; 68,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,0; 19,26</t>
+          <t>59,04; 65,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,0; 22,51</t>
+          <t>62,19; 68,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>65,04; 71,99</t>
+          <t>64,83; 71,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,71; 22,45</t>
+          <t>65,5; 72,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,63; 19,45</t>
+          <t>69,54; 75,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,91; 24,66</t>
+          <t>61,64; 67,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,84; 70,24</t>
+          <t>61,14; 66,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,36; 22,42</t>
+          <t>62,66; 67,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 18,68</t>
+          <t>62,23; 68,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,85; 22,17</t>
+          <t>63,86; 70,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>65,55; 70,16</t>
+          <t>64,36; 70,28</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>62,62; 66,9</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>61,02; 65,0</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>63,19; 67,16</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>64,37; 69,09</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>65,45; 70,12</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>67,83; 72,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social afectivo bajo (tasa de respuesta: 96,08%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>362.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>405.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>341.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>435.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>455.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>401.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>499.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>548.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>408.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>553.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>576.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>763.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>862.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>953.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>749.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>988.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1031.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1051049</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>863692</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>969470</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1079798</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>144146</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>153650</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1022155</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1074688</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1128695</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1073309</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>148258</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>147756</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2073204</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1938380</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2098165</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2153107</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>292404</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>301406</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>987444; 1113863</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>797355; 927195</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>897153; 1040516</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1007319; 1151292</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>136677; 152620</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>144730; 161093</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>952996; 1087535</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1010410; 1129030</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1068890; 1190017</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1000506; 1142785</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>139917; 155698</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>139921; 154636</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1980283; 2167567</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1852708; 2021778</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2014292; 2199572</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2054004; 2258931</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>281714; 304201</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>290791; 312292</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>584.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>692.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>699.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>586.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>737870</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>802529</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>822768</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>807972</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>45842</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>51838</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>875606</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>816337</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>824252</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>832124</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>41071</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>43787</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1613476</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1618867</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1647020</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1640096</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>86913</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>95626</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>665833; 808466</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>747180; 854159</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>760063; 881078</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>733438; 873082</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>39726; 50463</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>47274; 55590</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>820792; 934000</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>764451; 870162</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>765823; 875536</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>774682; 889673</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36671; 45188</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>39793; 47546</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1534985; 1708934</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1539255; 1699062</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1569271; 1731063</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1542675; 1730168</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>79644; 92748</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>89949; 101377</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>231860</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>221465</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>270178</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>287437</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>224463</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>223483</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>241252</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>263302</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>456324</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>444948</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>511430</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>550739</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>183213; 270279</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>188771; 256389</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>236884; 300232</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>249199; 319262</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>194002; 255514</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>190425; 253478</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>210645; 269254</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>226484; 298361</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>391843; 505971</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>401565; 486592</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>463696; 553744</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>497919; 602282</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>687.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>742.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>810.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>665.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>585.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>633.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>808.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>987.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1037.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>818.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>708.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>730.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1495.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1729.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1847.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1483.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1293.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1363.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2020780</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1887687</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2062417</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2175207</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>189988</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>205488</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2122224</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2114508</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2194199</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2168735</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>189330</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>191543</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>4143004</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>4002195</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>4256615</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>4343943</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>379317</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>397031</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1916141; 2117698</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1788230; 1983126</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1961549; 2158777</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2064443; 2284187</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>181435; 199775</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>196428; 214457</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2040637; 2223145</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2033166; 2209583</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2114026; 2281452</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2061807; 2264628</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>179964; 197960</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>182846; 199669</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>4004738; 4278749</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>3877490; 4130218</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>4124701; 4384030</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>4182749; 4489342</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>365751; 391830</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>384275; 408757</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
